--- a/tests/Feature/JoinBelongsToTest/joinable_dummies.xlsx
+++ b/tests/Feature/JoinBelongsToTest/joinable_dummies.xlsx
@@ -31,22 +31,22 @@
     <t xml:space="preserve">description</t>
   </si>
   <si>
-    <t xml:space="preserve">joinable_relations.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">joinable_relations.foreign_field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">joinable_relations.another_foreign_field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">another_joinable_relations.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">another_joinable_relations.foreign_field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">another_joinable_relations.another_foreign_field</t>
+    <t xml:space="preserve">joinable_relation.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">joinable_relation.foreign_field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">joinable_relation.another_foreign_field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">another_joinable_relation.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">another_joinable_relation.foreign_field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">another_joinable_relation.another_foreign_field</t>
   </si>
   <si>
     <t xml:space="preserve">title 1</t>
@@ -205,7 +205,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
